--- a/Report/211115 - Thesis graphs.xlsx
+++ b/Report/211115 - Thesis graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\monobrainDNAme\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A526F5-C8EC-4E6B-B87C-EE996A86F047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1B159E-098E-4891-A4D4-FD17873E79ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{7C941C9E-81A3-438E-9787-713C5A1CC14D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>GEO Accession</t>
   </si>
@@ -227,12 +227,165 @@
   <si>
     <t>GSE63409</t>
   </si>
+  <si>
+    <t>Glioblastoma-related immune cells</t>
+  </si>
+  <si>
+    <t>Mixed Immune Cells</t>
+  </si>
+  <si>
+    <t>Glioma-initiating cells</t>
+  </si>
+  <si>
+    <t>Data format</t>
+  </si>
+  <si>
+    <t>GSE112618</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Processed data was obtained directly from the authors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Used for signature validation</t>
+    </r>
+  </si>
+  <si>
+    <t>GSE41826</t>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Common monocyte progenitor</t>
+  </si>
+  <si>
+    <t>Ly6Chi</t>
+  </si>
+  <si>
+    <t>Infiltrating Monocytes</t>
+  </si>
+  <si>
+    <t>Infiltrating Microglia</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <r>
+      <t>GSE151506</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>Normalized, data scrape</t>
+  </si>
+  <si>
+    <t>Normalized, provided</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +395,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -485,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -559,6 +735,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -571,6 +753,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,49 +1084,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26085812-4962-4A3C-999B-9B4B5D8067C4}">
-  <dimension ref="B2:AA33"/>
+  <dimension ref="B2:AI35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+      <selection activeCell="AP13" sqref="AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="3.7109375" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" customWidth="1"/>
-    <col min="20" max="22" width="3.7109375" customWidth="1"/>
-    <col min="23" max="26" width="6.7109375" style="21" customWidth="1"/>
-    <col min="27" max="27" width="6.7109375" customWidth="1"/>
-    <col min="28" max="38" width="3.7109375" customWidth="1"/>
+    <col min="3" max="17" width="3.7109375" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" customWidth="1"/>
+    <col min="19" max="21" width="3.7109375" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" customWidth="1"/>
+    <col min="23" max="25" width="3.7109375" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" customWidth="1"/>
+    <col min="27" max="27" width="3.7109375" customWidth="1"/>
+    <col min="28" max="32" width="6.7109375" style="21" customWidth="1"/>
+    <col min="33" max="34" width="6.7109375" customWidth="1"/>
+    <col min="35" max="35" width="35.7109375" customWidth="1"/>
+    <col min="36" max="45" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-    </row>
-    <row r="3" spans="2:27" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="37"/>
+    </row>
+    <row r="3" spans="2:35" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
@@ -951,37 +1158,47 @@
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
-    </row>
-    <row r="4" spans="2:27" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="29"/>
+    </row>
+    <row r="4" spans="2:35" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="30" t="s">
+      <c r="U4" s="33"/>
+      <c r="V4" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="32" t="s">
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:27" s="27" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:35" s="27" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="25"/>
       <c r="C5" s="15" t="s">
         <v>30</v>
@@ -1017,50 +1234,74 @@
         <v>11</v>
       </c>
       <c r="N5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="T5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="U5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="V5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="W5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="15" t="s">
+      <c r="X5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="Y5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="AA5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="AB5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="AC5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="AE5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="AF5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AG5" s="15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="AH5" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI5" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B6" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="6">
@@ -1106,152 +1347,209 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="39">
+        <f>SUM(C6:AG6)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="39">
+        <f t="shared" ref="AH7:AH28" si="0">SUM(C7:AG7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <v>3</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>3</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="39">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>6</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7">
-        <v>6</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
+        <v>6</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7">
+        <v>6</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="39">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23">
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23">
         <v>12</v>
       </c>
-      <c r="P9" s="23">
+      <c r="U10" s="23">
         <v>12</v>
       </c>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="39">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
-        <v>7</v>
-      </c>
-      <c r="G10" s="7">
-        <v>7</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="7">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7">
+        <v>7</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1265,27 +1563,27 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="7">
-        <v>5</v>
-      </c>
-      <c r="V11" s="7">
-        <v>5</v>
-      </c>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="7">
-        <v>5</v>
-      </c>
+      <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
-      <c r="Z11" s="7">
-        <v>5</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="39">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -1299,12 +1597,8 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="9">
-        <v>31</v>
-      </c>
-      <c r="P12" s="9">
-        <v>31</v>
-      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1314,394 +1608,528 @@
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>10</v>
+      </c>
+      <c r="AH12" s="39">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7">
+        <v>31</v>
+      </c>
+      <c r="U13" s="7">
+        <v>31</v>
+      </c>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="39">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C14" s="22">
         <v>1</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="23">
         <v>1</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="23">
         <v>1</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="23">
         <v>1</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H14" s="23">
         <v>1</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="39">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="7">
         <v>3</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="7">
         <v>3</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="7">
         <v>3</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="7">
         <v>3</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H15" s="7">
         <v>3</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7">
         <v>52</v>
       </c>
-      <c r="V14" s="7">
+      <c r="AA15" s="7">
         <v>74</v>
       </c>
-      <c r="W14" s="7">
+      <c r="AB15" s="7">
         <v>54</v>
       </c>
-      <c r="X14" s="7">
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7">
         <v>55</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="AE15" s="7">
         <v>74</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="AF15" s="7">
         <v>21</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AG15" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="AH15" s="39">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B16" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C16" s="8">
         <v>8</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="9">
         <v>8</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>8</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>8</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>8</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H16" s="9">
         <v>8</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I16" s="9">
         <v>14</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="39">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7">
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7">
         <v>23</v>
       </c>
-      <c r="P16" s="7">
+      <c r="U17" s="7">
         <v>22</v>
       </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="39">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9">
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23">
         <v>20</v>
       </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="6">
-        <v>6</v>
-      </c>
-      <c r="D18" s="7">
-        <v>6</v>
-      </c>
-      <c r="E18" s="7">
-        <v>6</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="C19" s="6">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6</v>
+      </c>
+      <c r="E19" s="7">
+        <v>6</v>
+      </c>
+      <c r="F19" s="7">
         <v>7</v>
       </c>
-      <c r="G18" s="7">
-        <v>6</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="G19" s="7">
+        <v>6</v>
+      </c>
+      <c r="H19" s="7">
+        <v>6</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:35" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B21" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23">
-        <v>3</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23">
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7">
         <v>2</v>
       </c>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="N21" s="7">
+        <v>4</v>
+      </c>
+      <c r="O21" s="7">
+        <v>2</v>
+      </c>
+      <c r="P21" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="39">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7">
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23">
         <v>35</v>
       </c>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7">
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23">
         <v>35</v>
       </c>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="39">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9">
-        <v>54</v>
-      </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9">
-        <v>37</v>
-      </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
@@ -1717,27 +2145,33 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7">
-        <v>7</v>
-      </c>
-      <c r="R23" s="7">
-        <v>7</v>
-      </c>
-      <c r="S23" s="7">
-        <v>76</v>
-      </c>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
+      <c r="X23" s="7">
+        <v>54</v>
+      </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="39">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
@@ -1755,10 +2189,10 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9">
-        <v>21</v>
-      </c>
+      <c r="S24" s="9">
+        <v>37</v>
+      </c>
+      <c r="T24" s="9"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
@@ -1766,10 +2200,20 @@
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>23</v>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:35" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="41" t="s">
+        <v>74</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
@@ -1780,190 +2224,315 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="7">
-        <v>5</v>
-      </c>
+      <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="R25" s="7">
+        <v>76</v>
+      </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
+      <c r="V25" s="7">
+        <v>7</v>
+      </c>
+      <c r="W25" s="7">
+        <v>7</v>
+      </c>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="39">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23">
+        <v>21</v>
+      </c>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="39">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7">
         <v>5</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9">
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="39">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B28" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9">
         <v>28</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F28" s="9">
         <v>28</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G28" s="9">
         <v>28</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H28" s="9">
         <v>28</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I28" s="9">
         <v>29</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J28" s="9">
         <v>29</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-    </row>
-    <row r="27" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="12" t="str">
-        <f>"Total = " &amp; SUM(C27:AA27)</f>
-        <v>Total = 1182</v>
-      </c>
-      <c r="C27" s="13">
-        <f>SUM(C6:C26)</f>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="39">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="AI28" s="38"/>
+    </row>
+    <row r="29" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="str">
+        <f>"Total = " &amp; SUM(C29:AG29)</f>
+        <v>Total = 1147</v>
+      </c>
+      <c r="C29" s="13">
+        <f>SUM(C6:C28)</f>
         <v>24</v>
       </c>
-      <c r="D27" s="3">
-        <f t="shared" ref="D27:AA27" si="0">SUM(D6:D26)</f>
+      <c r="D29" s="3">
+        <f t="shared" ref="D29:AG29" si="1">SUM(D6:D28)</f>
         <v>24</v>
       </c>
-      <c r="E27" s="3">
-        <f t="shared" si="0"/>
+      <c r="E29" s="3">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="F27" s="3">
-        <f t="shared" si="0"/>
+      <c r="F29" s="3">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G27" s="3">
-        <f t="shared" si="0"/>
+      <c r="G29" s="3">
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="H27" s="3">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="I27" s="3">
-        <f t="shared" si="0"/>
+      <c r="H29" s="3">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="J27" s="3">
-        <f t="shared" si="0"/>
+      <c r="J29" s="3">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="K27" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L27" s="3">
-        <f t="shared" si="0"/>
+      <c r="K29" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="M27" s="3">
-        <f t="shared" si="0"/>
+      <c r="M29" s="3">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N27" s="3">
-        <f t="shared" si="0"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R29" s="3">
+        <f>SUM(R6:R28)</f>
+        <v>76</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="O27" s="3">
-        <f t="shared" si="0"/>
+      <c r="T29" s="3">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="P27" s="3">
-        <f t="shared" si="0"/>
+      <c r="U29" s="3">
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="Q27" s="3">
-        <f t="shared" si="0"/>
+      <c r="V29" s="3">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="R27" s="3">
-        <f t="shared" si="0"/>
+      <c r="W29" s="3">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="S27" s="3">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="T27" s="3">
-        <f t="shared" si="0"/>
+      <c r="X29" s="3">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="U27" s="3">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="V27" s="3">
-        <f t="shared" si="0"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="AA29" s="3">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="W27" s="3">
-        <f t="shared" si="0"/>
+      <c r="AB29" s="3">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="X27" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="Y27" s="3">
-        <f t="shared" si="0"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="AE29" s="3">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="Z27" s="3">
-        <f t="shared" si="0"/>
+      <c r="AF29" s="3">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="AA27" s="3">
-        <f t="shared" si="0"/>
+      <c r="AG29" s="3">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O33" t="s">
+      <c r="AH29" s="40"/>
+    </row>
+    <row r="30" spans="2:35" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:35" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T35" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:AA26">
-    <sortCondition ref="B18:B26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:AG28">
+    <sortCondition ref="B19:B28"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
